--- a/Data_preparation/datasets/final_data/Vicarious_Surgical_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Vicarious_Surgical_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,54 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -700,22 +652,22 @@
         <v>43830</v>
       </c>
       <c r="D2">
-        <v>222.8461507933775</v>
+        <v>294</v>
       </c>
       <c r="E2">
-        <v>219.044937133789</v>
+        <v>293.1000061035156</v>
       </c>
       <c r="F2">
-        <v>252.7807083626373</v>
+        <v>298.2000122070312</v>
       </c>
       <c r="G2">
-        <v>203.3649307879864</v>
+        <v>291.6000061035156</v>
       </c>
       <c r="H2">
-        <v>80995217</v>
+        <v>5894024</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-15470000</v>
@@ -744,22 +696,22 @@
         <v>43921</v>
       </c>
       <c r="D3">
-        <v>12.41129859768217</v>
+        <v>294</v>
       </c>
       <c r="E3">
-        <v>16.23237037658691</v>
+        <v>293.1000061035156</v>
       </c>
       <c r="F3">
-        <v>17.16704825563687</v>
+        <v>298.2000122070312</v>
       </c>
       <c r="G3">
-        <v>12.05887897968325</v>
+        <v>291.6000061035156</v>
       </c>
       <c r="H3">
-        <v>1299391231</v>
+        <v>5894024</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -809,22 +761,22 @@
         <v>44012</v>
       </c>
       <c r="D4">
-        <v>970.3393129824782</v>
+        <v>294</v>
       </c>
       <c r="E4">
-        <v>1088.628295898438</v>
+        <v>293.1000061035156</v>
       </c>
       <c r="F4">
-        <v>1118.200541627427</v>
+        <v>298.2000122070312</v>
       </c>
       <c r="G4">
-        <v>950.0083940437976</v>
+        <v>291.6000061035156</v>
       </c>
       <c r="H4">
-        <v>1333460157</v>
+        <v>5894024</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>123950</v>
@@ -886,22 +838,22 @@
         <v>44104</v>
       </c>
       <c r="D5">
-        <v>12.7733873356874</v>
+        <v>296.7000122070312</v>
       </c>
       <c r="E5">
-        <v>15.52035236358643</v>
+        <v>289.7999877929688</v>
       </c>
       <c r="F5">
-        <v>17.30587870681586</v>
+        <v>297</v>
       </c>
       <c r="G5">
-        <v>12.68182262753309</v>
+        <v>288</v>
       </c>
       <c r="H5">
-        <v>4500000193</v>
+        <v>5894024</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>421331250</v>
@@ -972,22 +924,22 @@
         <v>44196</v>
       </c>
       <c r="D6">
-        <v>32.50755730601569</v>
+        <v>304.2000122070312</v>
       </c>
       <c r="E6">
-        <v>31.25653076171875</v>
+        <v>304.7999877929688</v>
       </c>
       <c r="F6">
-        <v>32.99459606093095</v>
+        <v>313.2000122070312</v>
       </c>
       <c r="G6">
-        <v>30.77904021483708</v>
+        <v>300.2999877929688</v>
       </c>
       <c r="H6">
-        <v>219937482</v>
+        <v>5894024</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>438150000</v>
@@ -1064,22 +1016,22 @@
         <v>44286</v>
       </c>
       <c r="D7">
-        <v>2516.34996159507</v>
+        <v>298.5</v>
       </c>
       <c r="E7">
-        <v>2790.17041015625</v>
+        <v>297.8999938964844</v>
       </c>
       <c r="F7">
-        <v>2807.159270103477</v>
+        <v>318</v>
       </c>
       <c r="G7">
-        <v>2503.838146397838</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="H7">
-        <v>913159452</v>
+        <v>5894024</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>428662500</v>
@@ -1156,22 +1108,22 @@
         <v>44377</v>
       </c>
       <c r="D8">
-        <v>40.06459571156605</v>
+        <v>299.7000122070312</v>
       </c>
       <c r="E8">
-        <v>40.04537963867188</v>
+        <v>297.6000061035156</v>
       </c>
       <c r="F8">
-        <v>40.5353766696543</v>
+        <v>300</v>
       </c>
       <c r="G8">
-        <v>36.25990124070713</v>
+        <v>296.7000122070312</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>5894024</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>429956250</v>
@@ -1254,22 +1206,22 @@
         <v>44469</v>
       </c>
       <c r="D9">
-        <v>51.72000122070312</v>
+        <v>450</v>
       </c>
       <c r="E9">
-        <v>45.22999954223633</v>
+        <v>392.1000061035156</v>
       </c>
       <c r="F9">
-        <v>53.2400016784668</v>
+        <v>450.6000061035156</v>
       </c>
       <c r="G9">
-        <v>43.54000091552734</v>
+        <v>303.2999877929688</v>
       </c>
       <c r="H9">
-        <v>134598631</v>
+        <v>5894024</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1774589787</v>
@@ -1352,22 +1304,22 @@
         <v>44561</v>
       </c>
       <c r="D10">
-        <v>98.06110899770088</v>
+        <v>319.7999877929688</v>
       </c>
       <c r="E10">
-        <v>84.43734741210938</v>
+        <v>192.8999938964844</v>
       </c>
       <c r="F10">
-        <v>98.06110899770088</v>
+        <v>323.7000122070312</v>
       </c>
       <c r="G10">
-        <v>80.56356001156674</v>
+        <v>140.1000061035156</v>
       </c>
       <c r="H10">
-        <v>229140423</v>
+        <v>5894024</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1259768953</v>
@@ -1450,22 +1402,22 @@
         <v>44651</v>
       </c>
       <c r="D11">
-        <v>564.8420934999623</v>
+        <v>150.6000061035156</v>
       </c>
       <c r="E11">
-        <v>567.5840454101562</v>
+        <v>147.6000061035156</v>
       </c>
       <c r="F11">
-        <v>568.4980293802209</v>
+        <v>151.8000030517578</v>
       </c>
       <c r="G11">
-        <v>487.1534560444658</v>
+        <v>119.4000015258789</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>5894024</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>609371848</v>
@@ -1548,22 +1500,22 @@
         <v>44742</v>
       </c>
       <c r="D12">
-        <v>990.9535599144536</v>
+        <v>88.5</v>
       </c>
       <c r="E12">
-        <v>932.830322265625</v>
+        <v>117</v>
       </c>
       <c r="F12">
-        <v>1065.275076908038</v>
+        <v>129.3000030517578</v>
       </c>
       <c r="G12">
-        <v>932.830322265625</v>
+        <v>84.59999847412109</v>
       </c>
       <c r="H12">
-        <v>1333460157</v>
+        <v>5894024</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>356459056</v>
@@ -1646,22 +1598,22 @@
         <v>44834</v>
       </c>
       <c r="D13">
-        <v>3829.951036061672</v>
+        <v>102.3000030517578</v>
       </c>
       <c r="E13">
-        <v>3718.19677734375</v>
+        <v>116.0999984741211</v>
       </c>
       <c r="F13">
-        <v>4026.941593801738</v>
+        <v>117.5999984741211</v>
       </c>
       <c r="G13">
-        <v>3570.453859038701</v>
+        <v>91.5</v>
       </c>
       <c r="H13">
-        <v>933160187</v>
+        <v>5894024</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>407752081</v>
@@ -1744,22 +1696,22 @@
         <v>44926</v>
       </c>
       <c r="D14">
-        <v>17.67499923706055</v>
+        <v>62.09999847412109</v>
       </c>
       <c r="E14">
-        <v>19.1200008392334</v>
+        <v>81.30000305175781</v>
       </c>
       <c r="F14">
-        <v>19.76000022888184</v>
+        <v>91.1999969482422</v>
       </c>
       <c r="G14">
-        <v>17.08499908447266</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="H14">
-        <v>795535712</v>
+        <v>5894024</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>247187042</v>
@@ -1842,22 +1794,22 @@
         <v>45016</v>
       </c>
       <c r="D15">
-        <v>4646.163088703966</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="E15">
-        <v>4397.0390625</v>
+        <v>67.5</v>
       </c>
       <c r="F15">
-        <v>4647.12125803552</v>
+        <v>73.19999694824219</v>
       </c>
       <c r="G15">
-        <v>4224.568582820331</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>933160187</v>
+        <v>5894024</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>285919759</v>
@@ -1940,22 +1892,22 @@
         <v>45107</v>
       </c>
       <c r="D16">
-        <v>299.8867087280755</v>
+        <v>55.5</v>
       </c>
       <c r="E16">
-        <v>279.6763610839844</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="F16">
-        <v>311.3327623979251</v>
+        <v>62.09999847412109</v>
       </c>
       <c r="G16">
-        <v>274.7053735580706</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>5894024</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>232218889</v>
@@ -2038,22 +1990,22 @@
         <v>45199</v>
       </c>
       <c r="D17">
-        <v>1366.269412157012</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="E17">
-        <v>1400.426147460938</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="F17">
-        <v>1722.475366040805</v>
+        <v>17.70000076293945</v>
       </c>
       <c r="G17">
-        <v>1356.510344927319</v>
+        <v>9.600000381469728</v>
       </c>
       <c r="H17">
-        <v>134011000</v>
+        <v>5894024</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>75198695</v>
@@ -2136,22 +2088,22 @@
         <v>45291</v>
       </c>
       <c r="D18">
-        <v>124.5980016318655</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="E18">
-        <v>132.1493988037109</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="F18">
-        <v>136.1187273141222</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="G18">
-        <v>122.5649354352075</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="H18">
-        <v>229140423</v>
+        <v>5894024</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>64131961</v>
@@ -2234,22 +2186,22 @@
         <v>45382</v>
       </c>
       <c r="D19">
-        <v>4156.728619089413</v>
+        <v>9.899999618530272</v>
       </c>
       <c r="E19">
-        <v>4553.76318359375</v>
+        <v>8.430000305175781</v>
       </c>
       <c r="F19">
-        <v>5096.40944657156</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="G19">
-        <v>3750.957352676668</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="H19">
-        <v>175134528</v>
+        <v>5894024</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>52989129</v>
@@ -2332,22 +2284,22 @@
         <v>45473</v>
       </c>
       <c r="D20">
-        <v>2890.935410112718</v>
+        <v>5.809999942779541</v>
       </c>
       <c r="E20">
-        <v>2691.009033203125</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F20">
-        <v>3014.889763796666</v>
+        <v>11.42000007629394</v>
       </c>
       <c r="G20">
-        <v>2519.072349060875</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="H20">
-        <v>104878138</v>
+        <v>5894024</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>34444148</v>
@@ -2430,22 +2382,22 @@
         <v>45565</v>
       </c>
       <c r="D21">
-        <v>31.23959479848472</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="E21">
-        <v>28.76222801208496</v>
+        <v>7.909999847412109</v>
       </c>
       <c r="F21">
-        <v>31.50219696309808</v>
+        <v>9.54300022125244</v>
       </c>
       <c r="G21">
-        <v>28.63340577082776</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="H21">
-        <v>1299391231</v>
+        <v>5894024</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>33496681</v>
@@ -2528,22 +2480,22 @@
         <v>45657</v>
       </c>
       <c r="D22">
-        <v>2476.994723535176</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="E22">
-        <v>2384.00341796875</v>
+        <v>13.34000015258789</v>
       </c>
       <c r="F22">
-        <v>2758.415779854624</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="G22">
-        <v>2325.761495008725</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="H22">
-        <v>175134528</v>
+        <v>5894024</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>77752162</v>
@@ -2626,22 +2578,22 @@
         <v>45747</v>
       </c>
       <c r="D23">
-        <v>3590.70430246099</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="E23">
-        <v>3714.694091796875</v>
+        <v>8.260000228881836</v>
       </c>
       <c r="F23">
-        <v>3714.694091796875</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="G23">
-        <v>3048.748932944461</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>913159452</v>
+        <v>5894024</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>38904749</v>
@@ -2724,22 +2676,22 @@
         <v>45838</v>
       </c>
       <c r="D24">
-        <v>2937</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="E24">
-        <v>3025</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="F24">
-        <v>3125</v>
+        <v>13.74600028991699</v>
       </c>
       <c r="G24">
-        <v>2890</v>
+        <v>7.214000225067139</v>
       </c>
       <c r="H24">
-        <v>52985470</v>
+        <v>5894024</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>44489880</v>
